--- a/public/assets/template-import.xlsx
+++ b/public/assets/template-import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVE GUARDYAN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVE GUARDYAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AFEE05-7E12-4543-BDE4-BAEBA1078BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F974287-A258-4005-83B5-F8E1CBF6C4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="1" xr2:uid="{DE44748E-8679-49DC-A3CE-0789CD7E2858}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="6" xr2:uid="{DE44748E-8679-49DC-A3CE-0789CD7E2858}"/>
   </bookViews>
   <sheets>
     <sheet name="Gudang" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="493">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -472,87 +472,6 @@
     <t>IT/GD/PRI/005-006</t>
   </si>
   <si>
-    <t>IT/LAB2/PC/001-029</t>
-  </si>
-  <si>
-    <t>IT/LAB2/KY/001-027</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MO/001-029</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MN/001-029</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MN/030-035</t>
-  </si>
-  <si>
-    <t>IT/LAB2/KP/001-032</t>
-  </si>
-  <si>
-    <t>IT/LAB2/KVGA/001-007</t>
-  </si>
-  <si>
-    <t>IT/LAB2/PC/030</t>
-  </si>
-  <si>
-    <t>IT/LAB2/KY/028</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MO/030</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MN/030</t>
-  </si>
-  <si>
-    <t>IT/LAB2/PRO/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/LPRO/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/KHDMI/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/SHDMI/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/JAM/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/SKON/001-022</t>
-  </si>
-  <si>
-    <t>IT/LAB2/KUR/001-034</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MEJ/001-019</t>
-  </si>
-  <si>
-    <t>IT/LAB2/AC/005-008</t>
-  </si>
-  <si>
-    <t>IT/LAB2/SWI/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/PPT/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/LAM/001-009</t>
-  </si>
-  <si>
-    <t>IT/LAB2/MEJ/020</t>
-  </si>
-  <si>
-    <t>IT/LAB2/HAP/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/LEM/001</t>
-  </si>
-  <si>
-    <t>IT/LAB2/BRC/001</t>
-  </si>
-  <si>
     <t>Monitor siswa CRT</t>
   </si>
   <si>
@@ -1201,51 +1120,6 @@
     <t>Lemari</t>
   </si>
   <si>
-    <t>IT/TEMA/ME/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/KUR/006-009</t>
-  </si>
-  <si>
-    <t>IT/TEMA/KUR/010</t>
-  </si>
-  <si>
-    <t>IT/TEMA/LOC/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/ME/002</t>
-  </si>
-  <si>
-    <t>IT/TEMA/ME/003</t>
-  </si>
-  <si>
-    <t>IT/TEMA/KUL/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/RAK/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/PAP/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/DIS/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/DIS/002</t>
-  </si>
-  <si>
-    <t>IT/TEMA/TES/003</t>
-  </si>
-  <si>
-    <t>IT/TEMA/PEM/001-002</t>
-  </si>
-  <si>
-    <t>IT/TEMA/KPR/001</t>
-  </si>
-  <si>
-    <t>IT/TEMA/LAY/001-002</t>
-  </si>
-  <si>
     <t>Meja Makan</t>
   </si>
   <si>
@@ -1499,6 +1373,153 @@
   </si>
   <si>
     <t>XL</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Pembelian</t>
+  </si>
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>Jenis Pengadaan</t>
+  </si>
+  <si>
+    <t>IT-LAB2-PC-001-029</t>
+  </si>
+  <si>
+    <t>IT-LAB2-KY-001-027</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MO-001-029</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MN-001-029</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MN-030-035</t>
+  </si>
+  <si>
+    <t>IT-LAB2-KP-001-032</t>
+  </si>
+  <si>
+    <t>IT-LAB2-KVGA-001-007</t>
+  </si>
+  <si>
+    <t>IT-LAB2-PC-030</t>
+  </si>
+  <si>
+    <t>IT-LAB2-KY-028</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MO-030</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MN-030</t>
+  </si>
+  <si>
+    <t>IT-LAB2-PRO-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-LPRO-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-KHDMI-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-SHDMI-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-JAM-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-SKON-001-022</t>
+  </si>
+  <si>
+    <t>IT-LAB2-KUR-001-034</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MEJ-001-019</t>
+  </si>
+  <si>
+    <t>IT-LAB2-AC-005-008</t>
+  </si>
+  <si>
+    <t>IT-LAB2-SWI-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-PPT-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-LAM-001-009</t>
+  </si>
+  <si>
+    <t>IT-LAB2-MEJ-020</t>
+  </si>
+  <si>
+    <t>IT-LAB2-HAP-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-LEM-001</t>
+  </si>
+  <si>
+    <t>IT-LAB2-BRC-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-ME-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-KUR-006-009</t>
+  </si>
+  <si>
+    <t>IT-TEMA-KUR-010</t>
+  </si>
+  <si>
+    <t>IT-TEMA-LOC-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-ME-002</t>
+  </si>
+  <si>
+    <t>IT-TEMA-ME-003</t>
+  </si>
+  <si>
+    <t>IT-TEMA-KUL-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-RAK-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-PAP-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-DIS-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-DIS-002</t>
+  </si>
+  <si>
+    <t>IT-TEMA-TES-003</t>
+  </si>
+  <si>
+    <t>IT-TEMA-PEM-001-002</t>
+  </si>
+  <si>
+    <t>IT-TEMA-KPR-001</t>
+  </si>
+  <si>
+    <t>IT-TEMA-LAY-001-002</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Meja</t>
+  </si>
+  <si>
+    <t>Kursi</t>
   </si>
 </sst>
 </file>
@@ -2276,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B887BAB4-3717-41DA-9576-F7C4B429EABD}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2292,7 +2313,7 @@
     <col min="8" max="8" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2307,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -2328,10 +2349,10 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -2345,7 +2366,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2359,11 +2380,11 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -2377,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2391,11 +2412,11 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -2409,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -2423,11 +2444,11 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -2441,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -2455,11 +2476,11 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -2487,11 +2508,11 @@
       <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -2519,11 +2540,11 @@
       <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -2537,7 +2558,7 @@
         <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -2551,11 +2572,11 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -2569,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -2583,11 +2604,11 @@
       <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -2601,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -2615,11 +2636,11 @@
       <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -2645,11 +2666,11 @@
       <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -2677,11 +2698,11 @@
       <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -2695,7 +2716,7 @@
         <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -2709,11 +2730,11 @@
       <c r="J13" t="s">
         <v>18</v>
       </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -2727,7 +2748,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -2741,11 +2762,11 @@
       <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -2773,11 +2794,11 @@
       <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -2791,7 +2812,7 @@
         <v>116</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -2805,11 +2826,11 @@
       <c r="J16" t="s">
         <v>18</v>
       </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -2823,7 +2844,7 @@
         <v>116</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -2837,11 +2858,11 @@
       <c r="J17" t="s">
         <v>18</v>
       </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -2869,11 +2890,11 @@
       <c r="J18" t="s">
         <v>18</v>
       </c>
-      <c r="K18">
-        <v>10</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -2901,11 +2922,11 @@
       <c r="J19" t="s">
         <v>18</v>
       </c>
-      <c r="K19">
-        <v>10</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -2933,11 +2954,11 @@
       <c r="J20" t="s">
         <v>18</v>
       </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -2965,11 +2986,11 @@
       <c r="J21" t="s">
         <v>18</v>
       </c>
-      <c r="K21">
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>444</v>
+      </c>
+      <c r="L21" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -2997,11 +3018,11 @@
       <c r="J22" t="s">
         <v>18</v>
       </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -3015,7 +3036,7 @@
         <v>117</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -3029,11 +3050,11 @@
       <c r="J23" t="s">
         <v>18</v>
       </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="K23" t="s">
+        <v>444</v>
+      </c>
+      <c r="L23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -3047,7 +3068,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -3061,11 +3082,11 @@
       <c r="J24" t="s">
         <v>18</v>
       </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -3079,7 +3100,7 @@
         <v>119</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -3093,11 +3114,11 @@
       <c r="J25" t="s">
         <v>18</v>
       </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
@@ -3111,7 +3132,7 @@
         <v>120</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -3125,11 +3146,11 @@
       <c r="J26" t="s">
         <v>18</v>
       </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="K26" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -3143,7 +3164,7 @@
         <v>121</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -3157,11 +3178,11 @@
       <c r="J27" t="s">
         <v>18</v>
       </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="K27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -3175,7 +3196,7 @@
         <v>122</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -3189,11 +3210,11 @@
       <c r="J28" t="s">
         <v>18</v>
       </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+      <c r="K28" t="s">
+        <v>444</v>
+      </c>
+      <c r="L28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -3207,7 +3228,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -3221,11 +3242,11 @@
       <c r="J29" t="s">
         <v>18</v>
       </c>
-      <c r="K29">
-        <v>10</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
+      <c r="K29" t="s">
+        <v>444</v>
+      </c>
+      <c r="L29" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
@@ -3253,11 +3274,11 @@
       <c r="J30" t="s">
         <v>18</v>
       </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
+      <c r="K30" t="s">
+        <v>444</v>
+      </c>
+      <c r="L30" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -3271,7 +3292,7 @@
         <v>125</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -3285,11 +3306,11 @@
       <c r="J31" t="s">
         <v>18</v>
       </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
+      <c r="K31" t="s">
+        <v>444</v>
+      </c>
+      <c r="L31" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -3317,11 +3338,11 @@
       <c r="J32" t="s">
         <v>18</v>
       </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
+      <c r="K32" t="s">
+        <v>444</v>
+      </c>
+      <c r="L32" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
@@ -3349,11 +3370,11 @@
       <c r="J33" t="s">
         <v>18</v>
       </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
+      <c r="K33" t="s">
+        <v>444</v>
+      </c>
+      <c r="L33" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
@@ -3381,11 +3402,11 @@
       <c r="J34" t="s">
         <v>18</v>
       </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
+      <c r="K34" t="s">
+        <v>444</v>
+      </c>
+      <c r="L34" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
@@ -3413,11 +3434,11 @@
       <c r="J35" t="s">
         <v>18</v>
       </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
+      <c r="K35" t="s">
+        <v>444</v>
+      </c>
+      <c r="L35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -3445,11 +3466,11 @@
       <c r="J36" t="s">
         <v>18</v>
       </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
+      <c r="K36" t="s">
+        <v>444</v>
+      </c>
+      <c r="L36" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
@@ -3477,11 +3498,11 @@
       <c r="J37" t="s">
         <v>18</v>
       </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
+      <c r="K37" t="s">
+        <v>444</v>
+      </c>
+      <c r="L37" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3516,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B20" sqref="A1:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3510,7 +3531,7 @@
     <col min="8" max="8" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3525,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3546,15 +3567,15 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>448</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>79</v>
@@ -3563,7 +3584,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -3577,16 +3598,16 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>449</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>80</v>
@@ -3595,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -3609,16 +3630,16 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>450</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>81</v>
@@ -3627,7 +3648,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -3641,25 +3662,25 @@
       <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>451</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -3673,25 +3694,25 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>452</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -3705,16 +3726,16 @@
       <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>453</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>83</v>
@@ -3737,16 +3758,16 @@
       <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>454</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>84</v>
@@ -3755,7 +3776,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -3769,16 +3790,16 @@
       <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>85</v>
@@ -3787,7 +3808,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -3801,16 +3822,16 @@
       <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>456</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>86</v>
@@ -3819,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -3833,16 +3854,16 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>457</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>87</v>
@@ -3863,16 +3884,16 @@
       <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>458</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>88</v>
@@ -3881,7 +3902,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -3895,16 +3916,16 @@
       <c r="J12" t="s">
         <v>19</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>459</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>91</v>
@@ -3913,7 +3934,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -3927,16 +3948,16 @@
       <c r="J13" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
@@ -3959,19 +3980,19 @@
       <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>461</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>42</v>
@@ -3991,19 +4012,19 @@
       <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>462</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>42</v>
@@ -4023,16 +4044,16 @@
       <c r="J16" t="s">
         <v>19</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>463</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>96</v>
@@ -4055,16 +4076,16 @@
       <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>464</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>97</v>
@@ -4087,19 +4108,19 @@
       <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>465</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>42</v>
@@ -4119,19 +4140,19 @@
       <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>466</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>42</v>
@@ -4151,25 +4172,25 @@
       <c r="J20" t="s">
         <v>19</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -4183,16 +4204,16 @@
       <c r="J21" t="s">
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>444</v>
+      </c>
+      <c r="L21" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>468</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>101</v>
@@ -4201,7 +4222,7 @@
         <v>119</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -4215,16 +4236,16 @@
       <c r="J22" t="s">
         <v>19</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>106</v>
@@ -4247,16 +4268,16 @@
       <c r="J23" t="s">
         <v>19</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="K23" t="s">
+        <v>444</v>
+      </c>
+      <c r="L23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>107</v>
@@ -4265,7 +4286,7 @@
         <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -4279,19 +4300,19 @@
       <c r="J24" t="s">
         <v>19</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>471</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>42</v>
@@ -4311,16 +4332,16 @@
       <c r="J25" t="s">
         <v>19</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>110</v>
@@ -4343,19 +4364,19 @@
       <c r="J26" t="s">
         <v>19</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="K26" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>473</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -4375,16 +4396,16 @@
       <c r="J27" t="s">
         <v>19</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="K27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>474</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>113</v>
@@ -4407,57 +4428,84 @@
       <c r="J28" t="s">
         <v>19</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+      <c r="K28" t="s">
+        <v>444</v>
+      </c>
+      <c r="L28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
+      <c r="K29" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
+      <c r="K30" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
+      <c r="K31" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="K32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="K33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="K34" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="K35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="K36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="5"/>
+      <c r="K37" t="s">
+        <v>444</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4470,7 +4518,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+      <selection activeCell="C11" sqref="A1:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4485,7 +4533,7 @@
     <col min="8" max="8" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4500,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -4521,15 +4569,15 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>79</v>
@@ -4538,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -4552,25 +4600,25 @@
       <c r="J2" t="s">
         <v>126</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -4584,16 +4632,16 @@
       <c r="J3" t="s">
         <v>126</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>130</v>
@@ -4602,7 +4650,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -4616,25 +4664,25 @@
       <c r="J4" t="s">
         <v>126</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -4648,25 +4696,25 @@
       <c r="J5" t="s">
         <v>126</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -4680,25 +4728,25 @@
       <c r="J6" t="s">
         <v>126</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -4712,25 +4760,25 @@
       <c r="J7" t="s">
         <v>126</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -4744,16 +4792,16 @@
       <c r="J8" t="s">
         <v>126</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>132</v>
@@ -4762,7 +4810,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -4776,16 +4824,16 @@
       <c r="J9" t="s">
         <v>126</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
@@ -4794,7 +4842,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -4808,16 +4856,16 @@
       <c r="J10" t="s">
         <v>126</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>86</v>
@@ -4826,7 +4874,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -4840,16 +4888,16 @@
       <c r="J11" t="s">
         <v>126</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>81</v>
@@ -4858,7 +4906,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -4872,16 +4920,16 @@
       <c r="J12" t="s">
         <v>126</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>81</v>
@@ -4890,7 +4938,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -4904,16 +4952,16 @@
       <c r="J13" t="s">
         <v>126</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>81</v>
@@ -4922,7 +4970,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -4936,16 +4984,16 @@
       <c r="J14" t="s">
         <v>126</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
@@ -4954,7 +5002,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -4968,16 +5016,16 @@
       <c r="J15" t="s">
         <v>126</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>83</v>
@@ -5000,16 +5048,16 @@
       <c r="J16" t="s">
         <v>126</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>84</v>
@@ -5032,25 +5080,25 @@
       <c r="J17" t="s">
         <v>126</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -5064,16 +5112,16 @@
       <c r="J18" t="s">
         <v>126</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>96</v>
@@ -5096,16 +5144,16 @@
       <c r="J19" t="s">
         <v>126</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>97</v>
@@ -5114,7 +5162,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -5128,22 +5176,22 @@
       <c r="J20" t="s">
         <v>126</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>42</v>
@@ -5160,19 +5208,19 @@
       <c r="J21" t="s">
         <v>126</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>444</v>
+      </c>
+      <c r="L21" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>42</v>
@@ -5192,25 +5240,25 @@
       <c r="J22" t="s">
         <v>126</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -5224,25 +5272,25 @@
       <c r="J23" t="s">
         <v>126</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="K23" t="s">
+        <v>444</v>
+      </c>
+      <c r="L23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -5256,19 +5304,19 @@
       <c r="J24" t="s">
         <v>126</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>124</v>
@@ -5288,19 +5336,19 @@
       <c r="J25" t="s">
         <v>126</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>42</v>
@@ -5320,19 +5368,19 @@
       <c r="J26" t="s">
         <v>126</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="K26" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -5352,16 +5400,16 @@
       <c r="J27" t="s">
         <v>126</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="K27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
@@ -5384,16 +5432,16 @@
       <c r="J28" t="s">
         <v>126</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+      <c r="K28" t="s">
+        <v>444</v>
+      </c>
+      <c r="L28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>110</v>
@@ -5413,19 +5461,19 @@
       <c r="J29" t="s">
         <v>126</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
+      <c r="K29" t="s">
+        <v>444</v>
+      </c>
+      <c r="L29" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>42</v>
@@ -5442,16 +5490,16 @@
       <c r="J30" t="s">
         <v>126</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
+      <c r="K30" t="s">
+        <v>444</v>
+      </c>
+      <c r="L30" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>111</v>
@@ -5471,11 +5519,11 @@
       <c r="J31" t="s">
         <v>126</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
+      <c r="K31" t="s">
+        <v>444</v>
+      </c>
+      <c r="L31" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5488,7 +5536,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D28"/>
+      <selection activeCell="B13" sqref="A1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5503,7 +5551,7 @@
     <col min="8" max="8" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5518,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -5539,24 +5587,24 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -5570,16 +5618,16 @@
       <c r="J2" t="s">
         <v>127</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>94</v>
@@ -5588,7 +5636,7 @@
         <v>116</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -5602,25 +5650,25 @@
       <c r="J3" t="s">
         <v>127</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -5634,25 +5682,25 @@
       <c r="J4" t="s">
         <v>127</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -5666,25 +5714,25 @@
       <c r="J5" t="s">
         <v>127</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -5698,25 +5746,25 @@
       <c r="J6" t="s">
         <v>127</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -5730,25 +5778,25 @@
       <c r="J7" t="s">
         <v>127</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -5762,25 +5810,25 @@
       <c r="J8" t="s">
         <v>127</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -5794,25 +5842,25 @@
       <c r="J9" t="s">
         <v>127</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -5826,25 +5874,25 @@
       <c r="J10" t="s">
         <v>127</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -5858,25 +5906,25 @@
       <c r="J11" t="s">
         <v>127</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -5890,25 +5938,25 @@
       <c r="J12" t="s">
         <v>127</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -5922,19 +5970,19 @@
       <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>42</v>
@@ -5954,22 +6002,22 @@
       <c r="J14" t="s">
         <v>127</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>42</v>
@@ -5986,19 +6034,19 @@
       <c r="J15" t="s">
         <v>127</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>42</v>
@@ -6018,22 +6066,22 @@
       <c r="J16" t="s">
         <v>127</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>42</v>
@@ -6050,25 +6098,25 @@
       <c r="J17" t="s">
         <v>127</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -6082,25 +6130,25 @@
       <c r="J18" t="s">
         <v>127</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -6114,25 +6162,25 @@
       <c r="J19" t="s">
         <v>127</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -6146,25 +6194,25 @@
       <c r="J20" t="s">
         <v>127</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -6178,19 +6226,19 @@
       <c r="J21" t="s">
         <v>127</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>444</v>
+      </c>
+      <c r="L21" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>42</v>
@@ -6210,19 +6258,19 @@
       <c r="J22" t="s">
         <v>127</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>42</v>
@@ -6242,25 +6290,25 @@
       <c r="J23" t="s">
         <v>127</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="K23" t="s">
+        <v>444</v>
+      </c>
+      <c r="L23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -6274,25 +6322,25 @@
       <c r="J24" t="s">
         <v>127</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -6306,25 +6354,25 @@
       <c r="J25" t="s">
         <v>127</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -6338,25 +6386,25 @@
       <c r="J26" t="s">
         <v>127</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="K26" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -6370,19 +6418,19 @@
       <c r="J27" t="s">
         <v>127</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="K27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>42</v>
@@ -6402,11 +6450,11 @@
       <c r="J28" t="s">
         <v>127</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+      <c r="K28" t="s">
+        <v>444</v>
+      </c>
+      <c r="L28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -6434,7 +6482,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C15" sqref="A1:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6445,6 +6493,8 @@
     <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -6458,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -6479,18 +6529,18 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>42</v>
@@ -6510,25 +6560,25 @@
       <c r="J2" t="s">
         <v>127</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -6542,25 +6592,25 @@
       <c r="J3" t="s">
         <v>127</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -6574,25 +6624,25 @@
       <c r="J4" t="s">
         <v>127</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -6606,19 +6656,19 @@
       <c r="J5" t="s">
         <v>127</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>42</v>
@@ -6638,19 +6688,19 @@
       <c r="J6" t="s">
         <v>127</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>42</v>
@@ -6670,19 +6720,19 @@
       <c r="J7" t="s">
         <v>127</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
@@ -6702,19 +6752,19 @@
       <c r="J8" t="s">
         <v>127</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>42</v>
@@ -6734,19 +6784,19 @@
       <c r="J9" t="s">
         <v>127</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
@@ -6766,19 +6816,19 @@
       <c r="J10" t="s">
         <v>127</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
@@ -6798,19 +6848,19 @@
       <c r="J11" t="s">
         <v>127</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>42</v>
@@ -6830,19 +6880,19 @@
       <c r="J12" t="s">
         <v>127</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>42</v>
@@ -6862,19 +6912,19 @@
       <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>42</v>
@@ -6894,22 +6944,22 @@
       <c r="J14" t="s">
         <v>127</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>42</v>
@@ -6926,25 +6976,25 @@
       <c r="J15" t="s">
         <v>127</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -6958,25 +7008,25 @@
       <c r="J16" t="s">
         <v>127</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -6990,25 +7040,25 @@
       <c r="J17" t="s">
         <v>127</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -7022,25 +7072,25 @@
       <c r="J18" t="s">
         <v>127</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -7054,25 +7104,25 @@
       <c r="J19" t="s">
         <v>127</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -7086,19 +7136,19 @@
       <c r="J20" t="s">
         <v>127</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>42</v>
@@ -7118,19 +7168,19 @@
       <c r="J21" t="s">
         <v>127</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>444</v>
+      </c>
+      <c r="L21" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>42</v>
@@ -7150,22 +7200,22 @@
       <c r="J22" t="s">
         <v>127</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>42</v>
@@ -7182,25 +7232,25 @@
       <c r="J23" t="s">
         <v>127</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="K23" t="s">
+        <v>444</v>
+      </c>
+      <c r="L23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -7214,25 +7264,25 @@
       <c r="J24" t="s">
         <v>127</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -7246,25 +7296,25 @@
       <c r="J25" t="s">
         <v>127</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -7278,25 +7328,25 @@
       <c r="J26" t="s">
         <v>127</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="K26" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -7310,25 +7360,25 @@
       <c r="J27" t="s">
         <v>127</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="K27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -7342,25 +7392,25 @@
       <c r="J28" t="s">
         <v>127</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+      <c r="K28" t="s">
+        <v>444</v>
+      </c>
+      <c r="L28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -7374,25 +7424,25 @@
       <c r="J29" t="s">
         <v>127</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
+      <c r="K29" t="s">
+        <v>444</v>
+      </c>
+      <c r="L29" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -7406,25 +7456,25 @@
       <c r="J30" t="s">
         <v>127</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
+      <c r="K30" t="s">
+        <v>444</v>
+      </c>
+      <c r="L30" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -7438,25 +7488,25 @@
       <c r="J31" t="s">
         <v>127</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
+      <c r="K31" t="s">
+        <v>444</v>
+      </c>
+      <c r="L31" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -7470,22 +7520,22 @@
       <c r="J32" t="s">
         <v>127</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
+      <c r="K32" t="s">
+        <v>444</v>
+      </c>
+      <c r="L32" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>42</v>
@@ -7502,25 +7552,25 @@
       <c r="J33" t="s">
         <v>127</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
+      <c r="K33" t="s">
+        <v>444</v>
+      </c>
+      <c r="L33" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -7534,25 +7584,25 @@
       <c r="J34" t="s">
         <v>127</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
+      <c r="K34" t="s">
+        <v>444</v>
+      </c>
+      <c r="L34" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -7566,25 +7616,25 @@
       <c r="J35" t="s">
         <v>127</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
+      <c r="K35" t="s">
+        <v>444</v>
+      </c>
+      <c r="L35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -7598,19 +7648,19 @@
       <c r="J36" t="s">
         <v>127</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
+      <c r="K36" t="s">
+        <v>444</v>
+      </c>
+      <c r="L36" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>42</v>
@@ -7630,11 +7680,11 @@
       <c r="J37" t="s">
         <v>127</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
+      <c r="K37" t="s">
+        <v>444</v>
+      </c>
+      <c r="L37" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7647,8 +7697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA183F7E-C51F-42D1-AF8E-5EDBEDD1233C}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7660,7 +7710,7 @@
     <col min="8" max="8" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7675,7 +7725,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -7696,24 +7746,24 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -7727,25 +7777,25 @@
       <c r="J2" t="s">
         <v>128</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -7759,25 +7809,25 @@
       <c r="J3" t="s">
         <v>128</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -7791,16 +7841,16 @@
       <c r="J4" t="s">
         <v>128</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -7809,7 +7859,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -7823,25 +7873,25 @@
       <c r="J5" t="s">
         <v>128</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -7855,25 +7905,25 @@
       <c r="J6" t="s">
         <v>128</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -7887,22 +7937,22 @@
       <c r="J7" t="s">
         <v>128</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>42</v>
@@ -7919,25 +7969,25 @@
       <c r="J8" t="s">
         <v>128</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -7951,19 +8001,19 @@
       <c r="J9" t="s">
         <v>128</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
@@ -7983,19 +8033,19 @@
       <c r="J10" t="s">
         <v>128</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
@@ -8015,19 +8065,19 @@
       <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>42</v>
@@ -8047,19 +8097,19 @@
       <c r="J12" t="s">
         <v>128</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>42</v>
@@ -8079,11 +8129,11 @@
       <c r="J13" t="s">
         <v>128</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -8216,7 +8266,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8246,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -8267,18 +8317,18 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
@@ -8298,19 +8348,19 @@
       <c r="J2" t="s">
         <v>129</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -8330,19 +8380,19 @@
       <c r="J3" t="s">
         <v>129</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -8362,19 +8412,19 @@
       <c r="J4" t="s">
         <v>129</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -8394,19 +8444,19 @@
       <c r="J5" t="s">
         <v>129</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -8426,19 +8476,19 @@
       <c r="J6" t="s">
         <v>129</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>444</v>
+      </c>
+      <c r="L6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -8458,25 +8508,25 @@
       <c r="J7" t="s">
         <v>129</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -8490,19 +8540,19 @@
       <c r="J8" t="s">
         <v>129</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>118</v>
@@ -8522,16 +8572,16 @@
       <c r="J9" t="s">
         <v>129</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>106</v>
@@ -8554,25 +8604,25 @@
       <c r="J10" t="s">
         <v>129</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -8586,25 +8636,25 @@
       <c r="J11" t="s">
         <v>129</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -8618,19 +8668,19 @@
       <c r="J12" t="s">
         <v>129</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>42</v>
@@ -8650,19 +8700,19 @@
       <c r="J13" t="s">
         <v>129</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>42</v>
@@ -8682,19 +8732,19 @@
       <c r="J14" t="s">
         <v>129</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>488</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>42</v>
@@ -8714,16 +8764,16 @@
       <c r="J15" t="s">
         <v>129</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>92</v>
@@ -8746,11 +8796,11 @@
       <c r="J16" t="s">
         <v>129</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template-import.xlsx
+++ b/public/assets/template-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVE GUARDYAN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5101A6-4934-45A4-B158-EAB6AED02C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0DF65D-AE1D-4546-B4CA-425A50F01441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="5" xr2:uid="{343AFEB2-42A4-4B86-BE3F-5252B7B671B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{343AFEB2-42A4-4B86-BE3F-5252B7B671B6}"/>
   </bookViews>
   <sheets>
     <sheet name="LAB1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="409">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Yayasan Sekolah</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>IT-LAB2-PC-001-029</t>
   </si>
   <si>
-    <t>R02</t>
-  </si>
-  <si>
     <t>IT-LAB2-KY-001-027</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
     <t>Veriton i3</t>
   </si>
   <si>
-    <t>R03</t>
-  </si>
-  <si>
     <t>IT/ICT/PC/013-016</t>
   </si>
   <si>
@@ -770,9 +761,6 @@
     <t>PC Kepala</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
     <t>IT-KEPIT-MON-001-002</t>
   </si>
   <si>
@@ -1115,9 +1103,6 @@
     <t>Veriton M490</t>
   </si>
   <si>
-    <t>R09</t>
-  </si>
-  <si>
     <t>IT-TU-MON-001</t>
   </si>
   <si>
@@ -1172,9 +1157,6 @@
     <t>Meja Makan</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
     <t>IT-TEMA-KUR-006-009</t>
   </si>
   <si>
@@ -1257,16 +1239,49 @@
   </si>
   <si>
     <t>IT-TEMA-LAY-001-002</t>
+  </si>
+  <si>
+    <t>LAB1</t>
+  </si>
+  <si>
+    <t>LAB2</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Kepala IT</t>
+  </si>
+  <si>
+    <t>Tata Usaha</t>
+  </si>
+  <si>
+    <t>R. Makan</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1636,15 +1651,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853260B-BF0A-4CFE-8319-A7DF1BB0433E}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1711,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1705,27 +1738,30 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1737,27 +1773,30 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -1769,27 +1808,30 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -1801,27 +1843,30 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -1833,27 +1878,30 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -1865,27 +1913,30 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1897,88 +1948,97 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
       <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>400</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3"/>
       <c r="G11" t="s">
@@ -1991,283 +2051,310 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
+        <v>400</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" t="s">
         <v>70</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>400</v>
+      </c>
+      <c r="K18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>400</v>
+      </c>
+      <c r="K19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -2279,27 +2366,30 @@
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -2311,27 +2401,30 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -2343,27 +2436,30 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -2375,27 +2471,30 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -2407,155 +2506,170 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>400</v>
+      </c>
+      <c r="K25" t="s">
         <v>98</v>
       </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>400</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>400</v>
+      </c>
+      <c r="K27" t="s">
         <v>107</v>
       </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>400</v>
+      </c>
+      <c r="K28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -2567,59 +2681,65 @@
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>400</v>
+      </c>
+      <c r="K30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -2631,91 +2751,100 @@
         <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>400</v>
+      </c>
+      <c r="K32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>400</v>
+      </c>
+      <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -2727,27 +2856,30 @@
         <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -2759,27 +2891,30 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K35" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -2791,27 +2926,30 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -2823,31 +2961,35 @@
         <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C25EF-1572-4263-8058-5825E9AD5445}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2884,10 +3026,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -2908,27 +3053,30 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -2940,27 +3088,30 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -2972,27 +3123,30 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -3004,27 +3158,30 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -3036,27 +3193,30 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -3068,27 +3228,30 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -3100,27 +3263,30 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -3132,28 +3298,31 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -3164,24 +3333,27 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
       <c r="G11" t="s">
@@ -3194,219 +3366,240 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -3418,27 +3611,30 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -3450,59 +3646,65 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>401</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -3514,91 +3716,100 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -3610,27 +3821,30 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -3642,91 +3856,100 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>401</v>
+      </c>
+      <c r="K27" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" t="s">
-        <v>185</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -3738,13 +3961,16 @@
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3754,15 +3980,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F10F50A-3C32-4C0B-BA7D-AB3A63D3FAC7}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3799,19 +4025,22 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -3823,27 +4052,30 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -3855,59 +4087,65 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -3919,27 +4157,30 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -3951,187 +4192,205 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>402</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>402</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -4143,27 +4402,30 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -4175,27 +4437,30 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -4207,27 +4472,30 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -4239,27 +4507,30 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -4271,123 +4542,135 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>402</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -4399,27 +4682,30 @@
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -4431,27 +4717,30 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -4463,27 +4752,30 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -4495,27 +4787,30 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -4527,91 +4822,100 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -4623,132 +4927,147 @@
         <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>402</v>
+      </c>
+      <c r="K28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>402</v>
+      </c>
+      <c r="K29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>402</v>
+      </c>
+      <c r="K30" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" t="s">
-        <v>124</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>189</v>
-      </c>
-      <c r="K29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" t="s">
-        <v>185</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>402</v>
+      </c>
+      <c r="K31" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" t="s">
-        <v>134</v>
-      </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4758,15 +5077,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A59FF1-D686-42FC-94FD-0BDBEEBA36A1}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4803,51 +5122,57 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -4859,123 +5184,135 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>403</v>
+      </c>
+      <c r="K6" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" t="s">
-        <v>256</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -4987,27 +5324,30 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -5019,27 +5359,30 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -5051,27 +5394,30 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -5083,27 +5429,30 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -5115,91 +5464,100 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>403</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>403</v>
+      </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>243</v>
-      </c>
-      <c r="K12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -5211,27 +5569,30 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -5243,59 +5604,65 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>403</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>243</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -5307,27 +5674,30 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K17" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -5339,251 +5709,275 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K18" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" t="s">
+        <v>284</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>243</v>
-      </c>
-      <c r="K19" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>403</v>
+      </c>
+      <c r="K21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>243</v>
-      </c>
-      <c r="K20" t="s">
-        <v>288</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>403</v>
+      </c>
+      <c r="K22" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>243</v>
-      </c>
-      <c r="K21" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>243</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>403</v>
+      </c>
+      <c r="K23" t="s">
         <v>299</v>
       </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>243</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="D24" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>403</v>
+      </c>
+      <c r="K24" t="s">
+        <v>279</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" t="s">
         <v>307</v>
       </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>243</v>
-      </c>
-      <c r="K24" t="s">
-        <v>283</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>243</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="D26" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -5595,187 +5989,205 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K26" t="s">
+        <v>309</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>403</v>
+      </c>
+      <c r="K27" t="s">
+        <v>313</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>243</v>
-      </c>
-      <c r="K27" t="s">
-        <v>317</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>403</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>403</v>
+      </c>
+      <c r="K29" t="s">
         <v>323</v>
       </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="s">
-        <v>243</v>
-      </c>
-      <c r="K28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>403</v>
+      </c>
+      <c r="K30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>403</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" t="s">
-        <v>243</v>
-      </c>
-      <c r="K30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" t="s">
-        <v>243</v>
-      </c>
-      <c r="K31" t="s">
-        <v>299</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
@@ -5787,27 +6199,30 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -5819,141 +6234,156 @@
         <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="K33" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>403</v>
+      </c>
+      <c r="K34" t="s">
         <v>340</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="D35" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>403</v>
+      </c>
+      <c r="K35" t="s">
+        <v>340</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" t="s">
-        <v>243</v>
-      </c>
-      <c r="K35" t="s">
-        <v>344</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>403</v>
+      </c>
+      <c r="K36" t="s">
+        <v>346</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>403</v>
+      </c>
+      <c r="K37" t="s">
         <v>350</v>
       </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" t="s">
-        <v>243</v>
-      </c>
-      <c r="K37" t="s">
-        <v>354</v>
-      </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5963,15 +6393,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566AC03-5559-490B-BC15-C15434258032}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L13"/>
+      <selection activeCell="M2" sqref="M2:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6008,83 +6438,92 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>358</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -6096,123 +6535,135 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -6224,28 +6675,31 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -6256,27 +6710,30 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -6288,27 +6745,30 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -6320,27 +6780,30 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -6352,27 +6815,30 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -6384,13 +6850,16 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6400,15 +6869,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068EB238-0942-4652-86E4-6994AC52A19A}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6445,19 +6914,22 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -6469,27 +6941,30 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -6501,91 +6976,100 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>377</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -6597,251 +7081,275 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" t="s">
+        <v>385</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>377</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" t="s">
         <v>388</v>
       </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>377</v>
-      </c>
-      <c r="K9" t="s">
-        <v>391</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" t="s">
+        <v>388</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>377</v>
-      </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>405</v>
+      </c>
+      <c r="K13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>377</v>
-      </c>
-      <c r="K11" t="s">
-        <v>394</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>377</v>
-      </c>
-      <c r="K12" t="s">
-        <v>394</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" t="s">
-        <v>354</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -6853,27 +7361,30 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="K14" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -6885,27 +7396,30 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="K15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -6917,13 +7431,16 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template-import.xlsx
+++ b/public/assets/template-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0DF65D-AE1D-4546-B4CA-425A50F01441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CAA173-D692-4A88-B82D-81761862ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{343AFEB2-42A4-4B86-BE3F-5252B7B671B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="412">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -1266,13 +1266,22 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>URL Gambar</t>
+  </si>
+  <si>
+    <t>https://plus.unsplash.com/premium_photo-1683543124615-fb42e42c6201?q=80&amp;w=2071&amp;auto=format&amp;fit=crop&amp;ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://plus.unsplash.com/premium_photo-1671439543718-9e4d009827e8?q=80&amp;w=1826&amp;auto=format&amp;fit=crop&amp;ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,6 +1291,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1319,10 +1336,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1337,8 +1355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1651,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853260B-BF0A-4CFE-8319-A7DF1BB0433E}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
@@ -1672,9 +1692,10 @@
     <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1714,8 +1735,11 @@
       <c r="M1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1749,8 +1773,11 @@
       <c r="M2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1784,8 +1811,11 @@
       <c r="M3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1820,7 +1850,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +1885,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1920,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1960,7 +1990,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1995,7 +2025,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2030,7 +2060,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2063,7 +2093,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2163,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2198,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2203,7 +2233,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2975,6 +3005,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{DA8F1085-D17A-4432-AA30-8C5CF38B38BD}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{FE5E0476-253E-4CF7-8E47-D4320070D0E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/public/assets/template-import.xlsx
+++ b/public/assets/template-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CAA173-D692-4A88-B82D-81761862ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4324CD1-4EBA-42D9-90D7-6C6E77F6CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{343AFEB2-42A4-4B86-BE3F-5252B7B671B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{343AFEB2-42A4-4B86-BE3F-5252B7B671B6}"/>
   </bookViews>
   <sheets>
     <sheet name="LAB1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="412">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853260B-BF0A-4CFE-8319-A7DF1BB0433E}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3015,15 +3015,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C25EF-1572-4263-8058-5825E9AD5445}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3063,8 +3063,11 @@
       <c r="M1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>150</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
@@ -4014,15 +4017,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F10F50A-3C32-4C0B-BA7D-AB3A63D3FAC7}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4062,8 +4065,11 @@
       <c r="M1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>187</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>190</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>202</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -4378,7 +4384,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>207</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
@@ -4483,7 +4489,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>210</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>212</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>213</v>
       </c>
@@ -5111,15 +5117,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A59FF1-D686-42FC-94FD-0BDBEEBA36A1}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5159,8 +5165,11 @@
       <c r="M1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>238</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>242</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
@@ -5300,7 +5309,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>250</v>
       </c>
@@ -5335,7 +5344,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>255</v>
       </c>
@@ -5405,7 +5414,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>257</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>259</v>
       </c>
@@ -5475,7 +5484,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>261</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>263</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>265</v>
       </c>
@@ -5580,7 +5589,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>267</v>
       </c>
@@ -5615,7 +5624,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>269</v>
       </c>
@@ -5650,7 +5659,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>272</v>
       </c>
@@ -6427,15 +6436,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566AC03-5559-490B-BC15-C15434258032}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M13"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6475,8 +6484,11 @@
       <c r="M1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
@@ -6511,7 +6523,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>354</v>
       </c>
@@ -6546,7 +6558,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>355</v>
       </c>
@@ -6581,7 +6593,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>356</v>
       </c>
@@ -6616,7 +6628,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>359</v>
       </c>
@@ -6651,7 +6663,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>361</v>
       </c>
@@ -6686,7 +6698,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>362</v>
       </c>
@@ -6721,7 +6733,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>364</v>
       </c>
@@ -6756,7 +6768,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>365</v>
       </c>
@@ -6791,7 +6803,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>367</v>
       </c>
@@ -6826,7 +6838,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>368</v>
       </c>
@@ -6861,7 +6873,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>369</v>
       </c>
@@ -6903,15 +6915,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068EB238-0942-4652-86E4-6994AC52A19A}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6951,8 +6963,11 @@
       <c r="M1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -6987,7 +7002,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>372</v>
       </c>
@@ -7022,7 +7037,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>373</v>
       </c>
@@ -7057,7 +7072,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>375</v>
       </c>
@@ -7092,7 +7107,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>377</v>
       </c>
@@ -7127,7 +7142,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>379</v>
       </c>
@@ -7162,7 +7177,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>381</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>384</v>
       </c>
@@ -7232,7 +7247,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>386</v>
       </c>
@@ -7267,7 +7282,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>387</v>
       </c>
@@ -7302,7 +7317,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>390</v>
       </c>
@@ -7337,7 +7352,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>392</v>
       </c>
@@ -7372,7 +7387,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>393</v>
       </c>
@@ -7407,7 +7422,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>396</v>
       </c>
@@ -7442,7 +7457,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>399</v>
       </c>
